--- a/LINQ_Basics_In_UiPath/resources/officeItems.xlsx
+++ b/LINQ_Basics_In_UiPath/resources/officeItems.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasulu\Documents\UiPath\UiPath-LINQ\LINQ_Basics_In_UiPath\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC704D3-37FD-4110-9411-C364F607D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400C22F-9711-4E12-BE3B-C63047B8E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="1" xr2:uid="{64882E62-7442-4A1A-B6B3-0AD3E5376760}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Cast" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Lead Numbers" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Country List" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -73,112 +73,142 @@
     <x:t>Table Lamp</x:t>
   </x:si>
   <x:si>
+    <x:t>England</x:t>
+  </x:si>
+  <x:si>
+    <x:t>India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>France</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Russia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UAE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brazil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maurice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guillaume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luwinski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Denis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amelia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isabella</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodrigez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joshua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Henry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emily</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Logan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>William</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kinga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theodore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tracey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scarlett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Powell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eliana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adnan</x:t>
+  </x:si>
+  <x:si>
     <x:t>Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>England</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luwinski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>India</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Denis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rodrigez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joshua</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Henry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guillaume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kinga</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scotland</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tracey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UAE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brazil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maurice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Russia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Powell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adnan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead Number</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -219,7 +249,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -232,14 +262,8 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="3" tint="0.79998168889431442"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="13">
+  <x:borders count="16">
     <x:border>
       <x:left/>
       <x:right/>
@@ -421,8 +445,45 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -451,32 +512,29 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -493,42 +551,19 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -855,7 +890,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.855469" style="18" customWidth="1"/>
+    <x:col min="1" max="1" width="18.855469" style="17" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -938,7 +973,9 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <x:row r="11" spans="1:5" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="17" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
     <x:sortCondition ref="A1:A10"/>
@@ -956,172 +993,235 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E10"/>
+  <x:dimension ref="A1:G10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B8" sqref="B8 B8:B8"/>
+      <x:selection activeCell="G16" sqref="G16 G16:G16"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="26.566094" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="20.566094" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.570312" style="23" customWidth="1"/>
+    <x:col min="1" max="7" width="11.285156" style="17" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="20" t="s">
+    <x:row r="1" spans="1:7" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="18" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B1" s="20" t="s">
+      <x:c r="B1" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C1" s="20" t="s">
+      <x:c r="C1" s="18" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D1" s="20" t="s">
+      <x:c r="D1" s="18" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E1" s="20" t="s">
+      <x:c r="E1" s="18" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="21" t="s">
+      <x:c r="F1" s="18" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="G1" s="18" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E2" s="12" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F2" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G2" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B3" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C3" s="9" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D3" s="13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E3" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F3" s="13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C4" s="9" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D4" s="13" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E4" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F4" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B5" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="9" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D5" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="13" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F5" s="13" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B6" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D2" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E2" s="6" t="s">
+      <x:c r="C6" s="9" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D6" s="13" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E6" s="13" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F6" s="13" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="19" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B3" s="9" t="s">
+    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="9" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C7" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D7" s="13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E7" s="13" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F7" s="13" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D8" s="13" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E8" s="13" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F8" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C3" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="9" t="s">
+    </x:row>
+    <x:row r="9" spans="1:7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="11" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="19" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B4" s="9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C4" s="9" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D4" s="9" t="s">
+      <x:c r="B9" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D9" s="14" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E9" s="14" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F9" s="14" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C5" s="9" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="19" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B6" s="9" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C6" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="19" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B7" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="9" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D7" s="9" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="19" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" s="9" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="9" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D8" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="22" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B9" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C9" s="11" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D9" s="11" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E9" s="8" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="18" t="s"/>
+      <x:c r="G9" s="8" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="17" t="s"/>
+      <x:c r="B10" s="17" t="s"/>
+      <x:c r="C10" s="17" t="s"/>
+      <x:c r="D10" s="17" t="s"/>
+      <x:c r="E10" s="17" t="s"/>
+      <x:c r="F10" s="17" t="s"/>
+      <x:c r="G10" s="17" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="G16" s="17" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1144,13 +1244,13 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="18" t="s">
-        <x:v>46</x:v>
+      <x:c r="A1" s="17" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="18" t="s">
-        <x:v>15</x:v>
+      <x:c r="A2" s="17" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
